--- a/data/hotels_by_city/Houston/Houston_shard_368.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_368.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="653">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d9884015-Reviews-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
   </si>
   <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Houston-Willowbrook.h14619776.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1837 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r602059034-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>9884015</t>
+  </si>
+  <si>
+    <t>602059034</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Great hotel in a great location!</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by this hotel and our suite.  Very clean and spacious. Lots of storage and room to stretch out in each suite.  The kitchenette was so nice as well to keep our snacks and drinks. The lobby and breakfast area were cleaned daily.  Omelet packs were very good as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We were pleasantly surprised by this hotel and our suite.  Very clean and spacious. Lots of storage and room to stretch out in each suite.  The kitchenette was so nice as well to keep our snacks and drinks. The lobby and breakfast area were cleaned daily.  Omelet packs were very good as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r601639058-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601639058</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>HiltonHonors</t>
+  </si>
+  <si>
+    <t>Hotel was very clean! The pull out couch was not too comfortable, but other than that, the rooms were really nice! Breakfast was decent. The pool was too small. Wanted to go swim in the evening but there were too many people already so decided not to go inMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was very clean! The pull out couch was not too comfortable, but other than that, the rooms were really nice! Breakfast was decent. The pool was too small. Wanted to go swim in the evening but there were too many people already so decided not to go inMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r597392628-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597392628</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Visit Home</t>
+  </si>
+  <si>
+    <t>Very convenient location. Plenty of restuarants and shopping in the area Convenient access to the hwy  Accommodations were excellent. Highly recommend this hotel. I will definitely stay here on my next visit. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Very convenient location. Plenty of restuarants and shopping in the area Convenient access to the hwy  Accommodations were excellent. Highly recommend this hotel. I will definitely stay here on my next visit. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r592991946-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592991946</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>Friendly Staff, spacious rooms, excellent location, clean hotel  and excellent customer service. I stayed here for about 7 months on business and would recommend this hotel at this location to you.  They do all pets but for the most part you don't hear them if barking unless you are walking on hall way. I never had any issues but thought you might want follow they are per friendly. They also are a green facility and can see that this chain is doing things to protect the environment and provide quality stays for families and business class people. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Friendly Staff, spacious rooms, excellent location, clean hotel  and excellent customer service. I stayed here for about 7 months on business and would recommend this hotel at this location to you.  They do all pets but for the most part you don't hear them if barking unless you are walking on hall way. I never had any issues but thought you might want follow they are per friendly. They also are a green facility and can see that this chain is doing things to protect the environment and provide quality stays for families and business class people. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r592820942-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592820942</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Issues made my stay irritating</t>
+  </si>
+  <si>
+    <t>The Thursday morning before my arrival, I selected room #202 on the 2nd floor. When I arrived Thursday evening, I was assigned to a bottom floor, #102. Was told that it was the one I had selected. I told them no I did not select a bottom floor and she finally admitted that the room I had selected was now offline. No other suites of that size were available so I had to downgrade to a smaller suite. Housekeeping was skipped one Saturday and had to call for fresh towels that night as I had piled the other towels on the floor expecting housekeeping. They call it light housekeeping, which is fine. Saturday night was a pool party with loud music until the 11pm when the pool closed. It was all one party, about 25 people. Most of them did not stay at the hotel as I saw several carloads leave when the party was over. Did not complain but it was annoying. I am sure the atmosphere was very intimidating for other guests who wanted to use the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Thursday morning before my arrival, I selected room #202 on the 2nd floor. When I arrived Thursday evening, I was assigned to a bottom floor, #102. Was told that it was the one I had selected. I told them no I did not select a bottom floor and she finally admitted that the room I had selected was now offline. No other suites of that size were available so I had to downgrade to a smaller suite. Housekeeping was skipped one Saturday and had to call for fresh towels that night as I had piled the other towels on the floor expecting housekeeping. They call it light housekeeping, which is fine. Saturday night was a pool party with loud music until the 11pm when the pool closed. It was all one party, about 25 people. Most of them did not stay at the hotel as I saw several carloads leave when the party was over. Did not complain but it was annoying. I am sure the atmosphere was very intimidating for other guests who wanted to use the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r590063044-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>590063044</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Good location - nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights while attending a baseball tournament in Tomball, Texas. Location is perfect. Close to fields and close to ‘plenty’ of dining and shopping options. Place is clean, airy and bright. Rooms are nice size. Clean. Our room had 2 queens, full size fridge, microwave, plates, cups, etc. Shower was hot and water pressure was good. Rates were very reasonable. Beds and sheets were super comfortable. Quite nice. Small gym with 2 treadmills, 1 elliptical, 1 bike, free weights (dumbbells), medicine ball stack and an “all in one” weight machine. Well cooled. TVs. Water and towels. Small outdoor pool was nice. Plenty of free parking. Breakfast was pretty good. Waffles, heat and eat sandwiches, eggs, some fruit, cereal, yogurt, milk, juice and coffee. Good seating in lobby area. Staff was very friendly. Solid place - would definitely stay here again. Grade = A-MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a few nights while attending a baseball tournament in Tomball, Texas. Location is perfect. Close to fields and close to ‘plenty’ of dining and shopping options. Place is clean, airy and bright. Rooms are nice size. Clean. Our room had 2 queens, full size fridge, microwave, plates, cups, etc. Shower was hot and water pressure was good. Rates were very reasonable. Beds and sheets were super comfortable. Quite nice. Small gym with 2 treadmills, 1 elliptical, 1 bike, free weights (dumbbells), medicine ball stack and an “all in one” weight machine. Well cooled. TVs. Water and towels. Small outdoor pool was nice. Plenty of free parking. Breakfast was pretty good. Waffles, heat and eat sandwiches, eggs, some fruit, cereal, yogurt, milk, juice and coffee. Good seating in lobby area. Staff was very friendly. Solid place - would definitely stay here again. Grade = A-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r587703473-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587703473</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Very poor management response to crisis.</t>
+  </si>
+  <si>
+    <t>I travel a lot.  Hilton Diamond member for many years.  And I used to work in hospitality, so if something is amiss, I usually chock it up to a bad day, and let it go.  I rarely will write a bad review, and I think this is only my 3rd review on Trip Advisor.  The point is, I have to be motivated to do so.
+I stayed at this property for one night, May 3, 2018.  I had spent all week outside at the OTC in Houston, and all I wanted was a shower, and a nice night's sleep.  I unpacked per usual and stepped into the shower.  The door seemed stuck, so I set one foot out onto the floor and tugged a little.  The door, which was off the track and resting on the frame, jumped off its resting place, dropped 3" to the floor, and shattered, slicing up my hand, forearm, stomach, legs and feet.
+I managed to exit the bathroom, grabbing a towel on the way to put on my blood-dripping hand, and called the front desk.  He said he'd be right up with some bandaids.  I said to take a minute or two, because I had to get dressed.  When he arrived, he helped dress the worst of my wounds, and while I packed up again, went downstairs to get the key to the room two doors down.  This kid did everything he could to...I travel a lot.  Hilton Diamond member for many years.  And I used to work in hospitality, so if something is amiss, I usually chock it up to a bad day, and let it go.  I rarely will write a bad review, and I think this is only my 3rd review on Trip Advisor.  The point is, I have to be motivated to do so.I stayed at this property for one night, May 3, 2018.  I had spent all week outside at the OTC in Houston, and all I wanted was a shower, and a nice night's sleep.  I unpacked per usual and stepped into the shower.  The door seemed stuck, so I set one foot out onto the floor and tugged a little.  The door, which was off the track and resting on the frame, jumped off its resting place, dropped 3" to the floor, and shattered, slicing up my hand, forearm, stomach, legs and feet.I managed to exit the bathroom, grabbing a towel on the way to put on my blood-dripping hand, and called the front desk.  He said he'd be right up with some bandaids.  I said to take a minute or two, because I had to get dressed.  When he arrived, he helped dress the worst of my wounds, and while I packed up again, went downstairs to get the key to the room two doors down.  This kid did everything he could to make sure I was OK, even calling later in the evening.  He even offered to call an ambulance, though I declined.  Thought about stitches on my hand, but it wasn't that deep...The problem was with management.  Zero service recovery.  The GM called me that night, but as soon as they figured out I wasn't going to sue them, that was it.  No follow-up, no email, no comped room.  And though I had been promised Hilton points for my trouble, only the standard points for my room showed up on my account.  I left two messages for the manager, neither was returned.  Maybe I should have had my lawyer call....It's a nice enough hotel, newer, decent location.  But I wouldn't hire this manager to take care of my dogs.  I am tempted to attach photos here of my cuts.....but nobody wants to see that.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2018</t>
+  </si>
+  <si>
+    <t>I travel a lot.  Hilton Diamond member for many years.  And I used to work in hospitality, so if something is amiss, I usually chock it up to a bad day, and let it go.  I rarely will write a bad review, and I think this is only my 3rd review on Trip Advisor.  The point is, I have to be motivated to do so.
+I stayed at this property for one night, May 3, 2018.  I had spent all week outside at the OTC in Houston, and all I wanted was a shower, and a nice night's sleep.  I unpacked per usual and stepped into the shower.  The door seemed stuck, so I set one foot out onto the floor and tugged a little.  The door, which was off the track and resting on the frame, jumped off its resting place, dropped 3" to the floor, and shattered, slicing up my hand, forearm, stomach, legs and feet.
+I managed to exit the bathroom, grabbing a towel on the way to put on my blood-dripping hand, and called the front desk.  He said he'd be right up with some bandaids.  I said to take a minute or two, because I had to get dressed.  When he arrived, he helped dress the worst of my wounds, and while I packed up again, went downstairs to get the key to the room two doors down.  This kid did everything he could to...I travel a lot.  Hilton Diamond member for many years.  And I used to work in hospitality, so if something is amiss, I usually chock it up to a bad day, and let it go.  I rarely will write a bad review, and I think this is only my 3rd review on Trip Advisor.  The point is, I have to be motivated to do so.I stayed at this property for one night, May 3, 2018.  I had spent all week outside at the OTC in Houston, and all I wanted was a shower, and a nice night's sleep.  I unpacked per usual and stepped into the shower.  The door seemed stuck, so I set one foot out onto the floor and tugged a little.  The door, which was off the track and resting on the frame, jumped off its resting place, dropped 3" to the floor, and shattered, slicing up my hand, forearm, stomach, legs and feet.I managed to exit the bathroom, grabbing a towel on the way to put on my blood-dripping hand, and called the front desk.  He said he'd be right up with some bandaids.  I said to take a minute or two, because I had to get dressed.  When he arrived, he helped dress the worst of my wounds, and while I packed up again, went downstairs to get the key to the room two doors down.  This kid did everything he could to make sure I was OK, even calling later in the evening.  He even offered to call an ambulance, though I declined.  Thought about stitches on my hand, but it wasn't that deep...The problem was with management.  Zero service recovery.  The GM called me that night, but as soon as they figured out I wasn't going to sue them, that was it.  No follow-up, no email, no comped room.  And though I had been promised Hilton points for my trouble, only the standard points for my room showed up on my account.  I left two messages for the manager, neither was returned.  Maybe I should have had my lawyer call....It's a nice enough hotel, newer, decent location.  But I wouldn't hire this manager to take care of my dogs.  I am tempted to attach photos here of my cuts.....but nobody wants to see that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r587051590-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>587051590</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Very Satisfied!!</t>
+  </si>
+  <si>
+    <t>This was a very nice place to stay. The suites are so cozy and the breakfast has a variety. The pool area was always clean and so was the fitness center. I enjoyed our 4 day stay here and will definitely be looking for this hotel for future vacations! MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Front Office Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>This was a very nice place to stay. The suites are so cozy and the breakfast has a variety. The pool area was always clean and so was the fitness center. I enjoyed our 4 day stay here and will definitely be looking for this hotel for future vacations! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r586918565-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586918565</t>
+  </si>
+  <si>
+    <t>Excellent place</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the room was spacious and comfortable beds. I will definitely come back to this hotel when passing through Houston again. It was very clean and well taken care of. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and the room was spacious and comfortable beds. I will definitely come back to this hotel when passing through Houston again. It was very clean and well taken care of. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r585358224-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585358224</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Will Stay Again</t>
+  </si>
+  <si>
+    <t>I’m a Hilton Honors member and this was my first stay at a Home2. Overall very good experience. Nice front desk staff, clean rooms and overall good design. Minor Suggestions:The breakfast selection could be improved. My last day my room was not cleaned so that was a miss and little things such as lotion were not restocked during the daily cleanings. Overall good location and will definitely stay at a Home2 again. Good Job Hilton! MoreShow less</t>
+  </si>
+  <si>
+    <t>I’m a Hilton Honors member and this was my first stay at a Home2. Overall very good experience. Nice front desk staff, clean rooms and overall good design. Minor Suggestions:The breakfast selection could be improved. My last day my room was not cleaned so that was a miss and little things such as lotion were not restocked during the daily cleanings. Overall good location and will definitely stay at a Home2 again. Good Job Hilton! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r584010426-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584010426</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Clean modern hotel 25 minutes from airport</t>
+  </si>
+  <si>
+    <t>We booked this to have a night between flights at HOU airport, and it was so new and clean! The beds were so amazingly soft and comfortable, and combined with the ample black-out shades, we slept very soundly and woke up feeling very refreshed. Although it was a little farther from the airport than I had thought, the quality of the sleep was worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We booked this to have a night between flights at HOU airport, and it was so new and clean! The beds were so amazingly soft and comfortable, and combined with the ample black-out shades, we slept very soundly and woke up feeling very refreshed. Although it was a little farther from the airport than I had thought, the quality of the sleep was worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r583747594-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583747594</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Long weekend</t>
+  </si>
+  <si>
+    <t>My family stayed in this location for a long swim meet weekend.   We typically stay at extended stays because of the kitchenettes.  This particular location on our date was extremely noisy.  We stayed on the ground floor and there was considerable noise (party) above. Loud music and dropped objects.   When stopping at the front desk, I noticed a piece of paper stating “parties” are not allowed in guest rooms.  Apparently not true. Additionally both mornings, I squished millipedes that were crawling across the kitchen and bathroom floor.   It’s Texas so I’m accustomed to bugs.  Hire an exterminator. I’ve stayed at better Hilton locations. I will do so in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>My family stayed in this location for a long swim meet weekend.   We typically stay at extended stays because of the kitchenettes.  This particular location on our date was extremely noisy.  We stayed on the ground floor and there was considerable noise (party) above. Loud music and dropped objects.   When stopping at the front desk, I noticed a piece of paper stating “parties” are not allowed in guest rooms.  Apparently not true. Additionally both mornings, I squished millipedes that were crawling across the kitchen and bathroom floor.   It’s Texas so I’m accustomed to bugs.  Hire an exterminator. I’ve stayed at better Hilton locations. I will do so in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r577961398-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577961398</t>
+  </si>
+  <si>
+    <t>05/04/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great staff, room and overall hotel. Loved I could pick my room location. Check-In was a breeze since I used the digital key option. I will stay here again when I travel for business or even on vacation. MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2018</t>
+  </si>
+  <si>
+    <t>Great staff, room and overall hotel. Loved I could pick my room location. Check-In was a breeze since I used the digital key option. I will stay here again when I travel for business or even on vacation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r577194486-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577194486</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!!</t>
+  </si>
+  <si>
+    <t>WOW!  from the moment we walked in until we left we were pleasantly happy with our stay.  The staff was very friendly and courteous, the rooms were great and it's in a great location.  Great hotel and reasonable rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Anthony S, Front office supervisor at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>WOW!  from the moment we walked in until we left we were pleasantly happy with our stay.  The staff was very friendly and courteous, the rooms were great and it's in a great location.  Great hotel and reasonable rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r576604970-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576604970</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>romantic weekend</t>
+  </si>
+  <si>
+    <t>I wanted to have a romantic weekend with my partner.  Hotel allowed my partner to check in prior to my arrival.  This didn't allow me to select the room or get all the surprises set up in the room prior to my guests arrival.  Also requested digital key that didn't work.  also requested late check out to 12noon vs 11am. I had several trips to my car to pack every thing and kept having to go to front desk to reactivate my physical key to get back in room between 11 and 12.  Also very annoying because I could not get back in building using the back door closest to my car and had to walk all the way around the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>I wanted to have a romantic weekend with my partner.  Hotel allowed my partner to check in prior to my arrival.  This didn't allow me to select the room or get all the surprises set up in the room prior to my guests arrival.  Also requested digital key that didn't work.  also requested late check out to 12noon vs 11am. I had several trips to my car to pack every thing and kept having to go to front desk to reactivate my physical key to get back in room between 11 and 12.  Also very annoying because I could not get back in building using the back door closest to my car and had to walk all the way around the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r572283731-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>572283731</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>excellent location excellent facility for families and excellent stay clean</t>
+  </si>
+  <si>
+    <t>Simply excellent family-oriented for sure I highly recommend this for families I'll family-wise two boys 4 year olds and 11 year old they love this hotel they love being independent getting their breakfast they love the internet service there the location was near everything that you can possibly want around you just highly recommend the location highly recommend the family-oriented hotels just can't speak enough about it the staff was great the rooms with clean everything was up to par from the GM to brisket chopped salad to Miss Lily to the gym to the sales manager they all dealt with my four-year-old grandson and he loved being at that hotel and I'm happy for that we were very comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Simply excellent family-oriented for sure I highly recommend this for families I'll family-wise two boys 4 year olds and 11 year old they love this hotel they love being independent getting their breakfast they love the internet service there the location was near everything that you can possibly want around you just highly recommend the location highly recommend the family-oriented hotels just can't speak enough about it the staff was great the rooms with clean everything was up to par from the GM to brisket chopped salad to Miss Lily to the gym to the sales manager they all dealt with my four-year-old grandson and he loved being at that hotel and I'm happy for that we were very comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r571977051-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571977051</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>EXCELLENT new hotel with great location!</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful.  The room was exceptionally clean.  The beds were just right as was the temperature of the room. Breakfast selection was very good.  Fire Pit area is a relaxing plus!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff were very friendly and helpful.  The room was exceptionally clean.  The beds were just right as was the temperature of the room. Breakfast selection was very good.  Fire Pit area is a relaxing plus!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r571120960-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571120960</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Always an excellent service from the moment I put a foot at the hotel to the moment I leave the place.  I would always stay at your Home2 anywhere I go,  business or please is just the place to sleep when away from home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Always an excellent service from the moment I put a foot at the hotel to the moment I leave the place.  I would always stay at your Home2 anywhere I go,  business or please is just the place to sleep when away from home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r554743545-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554743545</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Excellent concept and some very helpful staff</t>
+  </si>
+  <si>
+    <t>It's the first time I've stayed at a Home2 suites hotel and I was impressed.  The rooms are new, fresh, modern and well equipped.  Beds are queen size and very comfortable. I especially like the kitchen facilities; microwave, dishwasher, crockery, toaster, fridge/freezer etc. A true home from home if you want it to be.  The breakfast was included in the price; it's a buffet style, perhaps more sparse than in a conventional hotel but that's a minor detail.  Anyway, as luck would have it, I arrived there for meetings over 2 days when Houston ground to a halt due to sleet and ice so we were pretty much hotel bound for the duration.  Nevertheless, the staff were very diligent and accommodating. I particularly want to thank Mary who organised a meeting room for myself and my boss at very short notice on the Wednesday morning and could not have been more helpful.  It all adds up to giving a very favourable impression and I will be making Home2 Suites my preferred hotel choice for future visits to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded January 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2018</t>
+  </si>
+  <si>
+    <t>It's the first time I've stayed at a Home2 suites hotel and I was impressed.  The rooms are new, fresh, modern and well equipped.  Beds are queen size and very comfortable. I especially like the kitchen facilities; microwave, dishwasher, crockery, toaster, fridge/freezer etc. A true home from home if you want it to be.  The breakfast was included in the price; it's a buffet style, perhaps more sparse than in a conventional hotel but that's a minor detail.  Anyway, as luck would have it, I arrived there for meetings over 2 days when Houston ground to a halt due to sleet and ice so we were pretty much hotel bound for the duration.  Nevertheless, the staff were very diligent and accommodating. I particularly want to thank Mary who organised a meeting room for myself and my boss at very short notice on the Wednesday morning and could not have been more helpful.  It all adds up to giving a very favourable impression and I will be making Home2 Suites my preferred hotel choice for future visits to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r549002987-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549002987</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>Great stay in a great location.</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip for one week. Great location to freeways to get to work easy. Safe location after dark. Multiple restaurants and shopping options after work hours to fit all my needs. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here on a business trip for one week. Great location to freeways to get to work easy. Safe location after dark. Multiple restaurants and shopping options after work hours to fit all my needs. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r548417796-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548417796</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Houston trip with family</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and new appearing. There was a cute hot chocolate bar in the lobby with all the fixings. Room was very spacious and beds were really pretty comfortable. Breakfast was modest but suited our needs. Only issue we had was with sliding bathroom door not closing all the way. Otherwise hotel was good and we would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and new appearing. There was a cute hot chocolate bar in the lobby with all the fixings. Room was very spacious and beds were really pretty comfortable. Breakfast was modest but suited our needs. Only issue we had was with sliding bathroom door not closing all the way. Otherwise hotel was good and we would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r545372331-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545372331</t>
+  </si>
+  <si>
+    <t>12/05/2017</t>
+  </si>
+  <si>
+    <t>Softball Tournament</t>
+  </si>
+  <si>
+    <t>This is a very nice place, great service and clean rooms. Stayed two nights and attended our daughters softball tournament. Very convenient to the softball fields. Would recommend to friends and family. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded December 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2017</t>
+  </si>
+  <si>
+    <t>This is a very nice place, great service and clean rooms. Stayed two nights and attended our daughters softball tournament. Very convenient to the softball fields. Would recommend to friends and family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r544351951-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544351951</t>
+  </si>
+  <si>
+    <t>11/29/2017</t>
+  </si>
+  <si>
+    <t>Home 2 Suites Great for Business Travel</t>
+  </si>
+  <si>
+    <t>Home 2 Suites is the perfect choice for business travel.  This hotel is located in a convenient location for business travelers.  The beds were comfortable, the rooms were quiet, the staff was very friendly and the breakfast was great.  Everything we could expect and all for a reasonable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Home 2 Suites is the perfect choice for business travel.  This hotel is located in a convenient location for business travelers.  The beds were comfortable, the rooms were quiet, the staff was very friendly and the breakfast was great.  Everything we could expect and all for a reasonable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r544119727-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544119727</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New, pretty well done </t>
+  </si>
+  <si>
+    <t>Good front desk, newer property - quiet location a few hundred feet from major traffic, which is a positive.  Well lit outside for parking at night.   I really like the layout of the desks and kitchen in these units MoreShow less</t>
+  </si>
+  <si>
+    <t>Good front desk, newer property - quiet location a few hundred feet from major traffic, which is a positive.  Well lit outside for parking at night.   I really like the layout of the desks and kitchen in these units More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r542337152-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542337152</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>New hotel, good location but...</t>
+  </si>
+  <si>
+    <t>We spent a week at the Home2 Suites Hilton located off Highway 249 next door to the Willowbrook Methodist Hospital in northwest Houston while visiting family in the area. There is a large lobby where families and business travelers can relax - plus a private, lovely courtyard near the entry door with comfortable outdoor seating. The hotel staff members were all helpful and courteous. Our spacious room included a kitchen with full-sized refrigerator, microwave, coffeemaker, dishes, glasses, silverware, baking dishes, toaster, etc, a large work desk with ergonomic chair, a high-quality, large-screen TV, a sitting area with couch, a very comfortable king size bed and plenty of drawers and storage place for our suitcases, etc. The room was fairly quiet but we could hear other guest voices through the walls now and then as well as noise coming from the hallway outside our door. Daily housekeeping consists of a "light cleaning" which means the bed gets made and fresh towels are delivered if you remember to leave your dirty towels on the bathroom floor. A "deep clean" occurs every five days when they change the bedsheets, clean the bathroom, wipe the kitchen counter, sweep the floor, etc. So if you've dropped cookie crumbs or potato chips on the carpet during "light cleaning" days then those crumbs and chips remain on the carpet until your "deep cleaning" five days later. The hotel's modern decor is a bit funky with mismatched carpeting...We spent a week at the Home2 Suites Hilton located off Highway 249 next door to the Willowbrook Methodist Hospital in northwest Houston while visiting family in the area. There is a large lobby where families and business travelers can relax - plus a private, lovely courtyard near the entry door with comfortable outdoor seating. The hotel staff members were all helpful and courteous. Our spacious room included a kitchen with full-sized refrigerator, microwave, coffeemaker, dishes, glasses, silverware, baking dishes, toaster, etc, a large work desk with ergonomic chair, a high-quality, large-screen TV, a sitting area with couch, a very comfortable king size bed and plenty of drawers and storage place for our suitcases, etc. The room was fairly quiet but we could hear other guest voices through the walls now and then as well as noise coming from the hallway outside our door. Daily housekeeping consists of a "light cleaning" which means the bed gets made and fresh towels are delivered if you remember to leave your dirty towels on the bathroom floor. A "deep clean" occurs every five days when they change the bedsheets, clean the bathroom, wipe the kitchen counter, sweep the floor, etc. So if you've dropped cookie crumbs or potato chips on the carpet during "light cleaning" days then those crumbs and chips remain on the carpet until your "deep cleaning" five days later. The hotel's modern decor is a bit funky with mismatched carpeting and a variety of colors - it's unusual rather than classy or elegant. Breakfast is available in the lobby area until 9 a.m. and includes cellophane-wrapped eggs and sausages that you heat in the microwave, plus waffles, a selection of cereals, fruit juices, coffee, tea, etc. We ended up driving north to the Vintage Park shopping center to eat breakfast at a full service restaurant called "Another Broken Egg" which was awesome. The hotel's location is convenient not only to Vintage Park but also to Willowbrook Mall (don't leave valuables in your car there) and a variety of good restaurants.The Home2 Suites caters to families, business travelers, etc. and is surely a  comforting "home away from home" for guests who wish to stay near their loved ones who are patients in the medical facilities nearby. We love the Hilton hotel chain but won't be returning to this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded November 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2017</t>
+  </si>
+  <si>
+    <t>We spent a week at the Home2 Suites Hilton located off Highway 249 next door to the Willowbrook Methodist Hospital in northwest Houston while visiting family in the area. There is a large lobby where families and business travelers can relax - plus a private, lovely courtyard near the entry door with comfortable outdoor seating. The hotel staff members were all helpful and courteous. Our spacious room included a kitchen with full-sized refrigerator, microwave, coffeemaker, dishes, glasses, silverware, baking dishes, toaster, etc, a large work desk with ergonomic chair, a high-quality, large-screen TV, a sitting area with couch, a very comfortable king size bed and plenty of drawers and storage place for our suitcases, etc. The room was fairly quiet but we could hear other guest voices through the walls now and then as well as noise coming from the hallway outside our door. Daily housekeeping consists of a "light cleaning" which means the bed gets made and fresh towels are delivered if you remember to leave your dirty towels on the bathroom floor. A "deep clean" occurs every five days when they change the bedsheets, clean the bathroom, wipe the kitchen counter, sweep the floor, etc. So if you've dropped cookie crumbs or potato chips on the carpet during "light cleaning" days then those crumbs and chips remain on the carpet until your "deep cleaning" five days later. The hotel's modern decor is a bit funky with mismatched carpeting...We spent a week at the Home2 Suites Hilton located off Highway 249 next door to the Willowbrook Methodist Hospital in northwest Houston while visiting family in the area. There is a large lobby where families and business travelers can relax - plus a private, lovely courtyard near the entry door with comfortable outdoor seating. The hotel staff members were all helpful and courteous. Our spacious room included a kitchen with full-sized refrigerator, microwave, coffeemaker, dishes, glasses, silverware, baking dishes, toaster, etc, a large work desk with ergonomic chair, a high-quality, large-screen TV, a sitting area with couch, a very comfortable king size bed and plenty of drawers and storage place for our suitcases, etc. The room was fairly quiet but we could hear other guest voices through the walls now and then as well as noise coming from the hallway outside our door. Daily housekeeping consists of a "light cleaning" which means the bed gets made and fresh towels are delivered if you remember to leave your dirty towels on the bathroom floor. A "deep clean" occurs every five days when they change the bedsheets, clean the bathroom, wipe the kitchen counter, sweep the floor, etc. So if you've dropped cookie crumbs or potato chips on the carpet during "light cleaning" days then those crumbs and chips remain on the carpet until your "deep cleaning" five days later. The hotel's modern decor is a bit funky with mismatched carpeting and a variety of colors - it's unusual rather than classy or elegant. Breakfast is available in the lobby area until 9 a.m. and includes cellophane-wrapped eggs and sausages that you heat in the microwave, plus waffles, a selection of cereals, fruit juices, coffee, tea, etc. We ended up driving north to the Vintage Park shopping center to eat breakfast at a full service restaurant called "Another Broken Egg" which was awesome. The hotel's location is convenient not only to Vintage Park but also to Willowbrook Mall (don't leave valuables in your car there) and a variety of good restaurants.The Home2 Suites caters to families, business travelers, etc. and is surely a  comforting "home away from home" for guests who wish to stay near their loved ones who are patients in the medical facilities nearby. We love the Hilton hotel chain but won't be returning to this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r538597527-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538597527</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Room was fresh and clean.  Staff was kind and accommodating.</t>
+  </si>
+  <si>
+    <t>Wanted the earliest check-in and the front desk called me as soon as a room became available. Staff was very courteous. It was a long trip for us and we were all so tired. We felt welcomed. And when we got to the room we felt refreshed to be able to relax on super comfortable beds and a clean fresh smell. Overall it was fantastic! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2017</t>
+  </si>
+  <si>
+    <t>Wanted the earliest check-in and the front desk called me as soon as a room became available. Staff was very courteous. It was a long trip for us and we were all so tired. We felt welcomed. And when we got to the room we felt refreshed to be able to relax on super comfortable beds and a clean fresh smell. Overall it was fantastic! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r538589708-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538589708</t>
+  </si>
+  <si>
+    <t>A business home away from home.</t>
+  </si>
+  <si>
+    <t>A very friendly staff. Rooms are great. Location for my purposes was excellent since I was working very close to Willowbrook Mall and Hospital. Breakfast was adequate but limited. Plenty of parking. The staff knew the area well with lots of advice for evening food. Kitchen is limited to a regular size refrigerator and microwave. The available hot plate only handles a fry pan.MoreShow less</t>
+  </si>
+  <si>
+    <t>A very friendly staff. Rooms are great. Location for my purposes was excellent since I was working very close to Willowbrook Mall and Hospital. Breakfast was adequate but limited. Plenty of parking. The staff knew the area well with lots of advice for evening food. Kitchen is limited to a regular size refrigerator and microwave. The available hot plate only handles a fry pan.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r533565673-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533565673</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Will be back!</t>
+  </si>
+  <si>
+    <t>Clean, spacious and comfortable room, nicely outfitted weight room, along with a polite and professional staff made for a terrific stay. The pricing is good too. I will definitely book here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2017</t>
+  </si>
+  <si>
+    <t>Clean, spacious and comfortable room, nicely outfitted weight room, along with a polite and professional staff made for a terrific stay. The pricing is good too. I will definitely book here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r531590541-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531590541</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Awesome stay!</t>
+  </si>
+  <si>
+    <t>Awesome clean hotel, quick check in, nice work out facility, variety of breakfast options, large room, comfortable suite, very nice appliances in suite, soap dispenser in shower, nice size flat screen televisionMoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2017</t>
+  </si>
+  <si>
+    <t>Awesome clean hotel, quick check in, nice work out facility, variety of breakfast options, large room, comfortable suite, very nice appliances in suite, soap dispenser in shower, nice size flat screen televisionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r530007268-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530007268</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>On of the best rooms we have stayed in! The room was large with a kitchenette.  Plenty of space and very clean. Enjoyed the complimentary breakfast too!  We will definitely be back.   Thanks so much for making this a memorable visit!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>On of the best rooms we have stayed in! The room was large with a kitchenette.  Plenty of space and very clean. Enjoyed the complimentary breakfast too!  We will definitely be back.   Thanks so much for making this a memorable visit!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r516899672-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516899672</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>On going</t>
+  </si>
+  <si>
+    <t>As always the staff here are more than accomadating. It is my home away from home and they treat me as such. I like the way I am greeted and taken care if when I am there. Breakfast is a little less desirable than some places and it would be nice to get a beer in the premises. Also would prefer the smoking area bot be in front if the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>As always the staff here are more than accomadating. It is my home away from home and they treat me as such. I like the way I am greeted and taken care if when I am there. Breakfast is a little less desirable than some places and it would be nice to get a beer in the premises. Also would prefer the smoking area bot be in front if the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r516926066-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516926066</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!!</t>
+  </si>
+  <si>
+    <t>Impeccable service and superb accommodations, extremely clean and modern. Very comfortable beds and the service is second to none. Highly recommended. Easily accessible, close to shops and restaurants, quiet and the fitness center is fantasticMoreShow less</t>
+  </si>
+  <si>
+    <t>Impeccable service and superb accommodations, extremely clean and modern. Very comfortable beds and the service is second to none. Highly recommended. Easily accessible, close to shops and restaurants, quiet and the fitness center is fantasticMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r515638566-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515638566</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly Recommend </t>
+  </si>
+  <si>
+    <t>First time staying at this line of Hilton hotels and pleasantly surprised. Stayed two nights over weekend. Upon arriving front desk greeted me with complimentary goodie bag. I used the Digital Key on Hilton app which was a simple. Room was spacious and very modern. Microwave/frig/dishwasher/coffee maker in room. Restroom clean and had walk-in shower. Extremely quiet night helped my black out blinds. Good selection of breakfast items like yogurts, pastries, breads, waffles", fruits and several coffees. No hot items except breakfast sandwiches and egg omelette arhat had to be microwaved. These packages foods were good. Service was great. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>First time staying at this line of Hilton hotels and pleasantly surprised. Stayed two nights over weekend. Upon arriving front desk greeted me with complimentary goodie bag. I used the Digital Key on Hilton app which was a simple. Room was spacious and very modern. Microwave/frig/dishwasher/coffee maker in room. Restroom clean and had walk-in shower. Extremely quiet night helped my black out blinds. Good selection of breakfast items like yogurts, pastries, breads, waffles", fruits and several coffees. No hot items except breakfast sandwiches and egg omelette arhat had to be microwaved. These packages foods were good. Service was great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r506321945-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506321945</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Home away from home!!!</t>
+  </si>
+  <si>
+    <t>Great place for the family and or if travelling alone. Room is very spacious and we'll designed. Love the shampoo and body wash pumps in the shower!! Staff was very courteous! Look forward to another stay in the future!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Great place for the family and or if travelling alone. Room is very spacious and we'll designed. Love the shampoo and body wash pumps in the shower!! Staff was very courteous! Look forward to another stay in the future!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r505838260-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505838260</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Had a very nice experience. Will definitely consider this property again.</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located near restaurants &amp; shopping. The staff was very nice &amp; accommodating. The beds were very comfortable &amp; I had a great nights rest. The price is good for the size of the Suites!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located near restaurants &amp; shopping. The staff was very nice &amp; accommodating. The beds were very comfortable &amp; I had a great nights rest. The price is good for the size of the Suites!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r501118570-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501118570</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>in town for a wedding</t>
+  </si>
+  <si>
+    <t>Excellent choice for wedding hotel block...ample room in lobby and spacious rooms for congregating.  The breakfast was fresh and clean...food was delicious with a variety of healthy options. The rooms are clean, huge, new, and accommodating for couples or families.  I would stay at Home2 Hotels again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Excellent choice for wedding hotel block...ample room in lobby and spacious rooms for congregating.  The breakfast was fresh and clean...food was delicious with a variety of healthy options. The rooms are clean, huge, new, and accommodating for couples or families.  I would stay at Home2 Hotels again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r497547265-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497547265</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Excellent value!</t>
+  </si>
+  <si>
+    <t>We stayed here 26-30 Jun 1017 with our 2 kids (9 &amp; 7 yrs old).  Salt water pool and hot tub were awesome &amp; at the perfect temp.  Breakfast was decent and as expected for a Home2 Suites.  Room was spacious and clean.  They must treat their housekeeping staff well, because they seemed to be the happiest &amp; friendliest staff I've ever seen at a hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here 26-30 Jun 1017 with our 2 kids (9 &amp; 7 yrs old).  Salt water pool and hot tub were awesome &amp; at the perfect temp.  Breakfast was decent and as expected for a Home2 Suites.  Room was spacious and clean.  They must treat their housekeeping staff well, because they seemed to be the happiest &amp; friendliest staff I've ever seen at a hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r496688426-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496688426</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Place to stay for brothers wedding</t>
+  </si>
+  <si>
+    <t>This hotel was great. I was greeted by Diaa who was very nice. He explained things very clearly. The complementary breakfast had lots to choose from, the waffles were my favorite. The room very spacious and clean. Everything was very clean, pool area and gym.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was great. I was greeted by Diaa who was very nice. He explained things very clearly. The complementary breakfast had lots to choose from, the waffles were my favorite. The room very spacious and clean. Everything was very clean, pool area and gym.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r496670186-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496670186</t>
+  </si>
+  <si>
+    <t>Relocation stay</t>
+  </si>
+  <si>
+    <t>This is very nice hotel good location near many stores and restaurants.  Pets are welcome and well behaved children are too!  Nice pool and Hot tub area as well as gas grill for cooking out and enjoy an evening.  S'mores are a welcome for all around Open fire pit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This is very nice hotel good location near many stores and restaurants.  Pets are welcome and well behaved children are too!  Nice pool and Hot tub area as well as gas grill for cooking out and enjoy an evening.  S'mores are a welcome for all around Open fire pit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r490348164-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490348164</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Very Nice &amp; Clean</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights during our stay in Houston.  The hotel is about 9 or 10 months old so it is very clean and modern.  The room was spacious and had everything that we needed.  The only issue we had was noisy neighbors the first night.  There was a large church group and the kids were making a lot of noise around 11:00 pm.  A quick call to the desk took care of the issue promptly. All employees were very friendly and helpful.  Breakfast was the typical one you get in a hotel.  Highly recommend a stay here even if you don't need a kitchen, which we didn't.  Convenient location to a mall and many restaurants.    MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded June 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights during our stay in Houston.  The hotel is about 9 or 10 months old so it is very clean and modern.  The room was spacious and had everything that we needed.  The only issue we had was noisy neighbors the first night.  There was a large church group and the kids were making a lot of noise around 11:00 pm.  A quick call to the desk took care of the issue promptly. All employees were very friendly and helpful.  Breakfast was the typical one you get in a hotel.  Highly recommend a stay here even if you don't need a kitchen, which we didn't.  Convenient location to a mall and many restaurants.    More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r489272394-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489272394</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Great hotel. The rooms were very large and very clean. The beds were soft. The staff was amazing as they helped with everything. We were in town for a soccer tournament and they let us have a pizza party with the team in the breakfast area and allowed us to use their utensils. Great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel. The rooms were very large and very clean. The beds were soft. The staff was amazing as they helped with everything. We were in town for a soccer tournament and they let us have a pizza party with the team in the breakfast area and allowed us to use their utensils. Great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r488958204-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488958204</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel for family or group</t>
+  </si>
+  <si>
+    <t>took a group of 22 people on a weekend training. the staff was exceptionally accommodating. the spaces both public and private were perfect. We had a wonderful time and it was only made better by the service this hotel offered. Beds were very comfortable. Rooms were spacious. it was very clean and relaxing.MoreShow less</t>
+  </si>
+  <si>
+    <t>took a group of 22 people on a weekend training. the staff was exceptionally accommodating. the spaces both public and private were perfect. We had a wonderful time and it was only made better by the service this hotel offered. Beds were very comfortable. Rooms were spacious. it was very clean and relaxing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r482526668-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482526668</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Stay Review</t>
+  </si>
+  <si>
+    <t>Getting away for the weekend, staff was able to accommodate and move us to a more private room in the hotel where we would not be bothered by the large amount of children/ teenagers that had checked into the hotel the same day. I very much appreciated this! I had a great weekend thank you! Staff was very friendly and had smiles the entire time. It was a very welcoming environment. I will definitely  return when needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2017</t>
+  </si>
+  <si>
+    <t>Getting away for the weekend, staff was able to accommodate and move us to a more private room in the hotel where we would not be bothered by the large amount of children/ teenagers that had checked into the hotel the same day. I very much appreciated this! I had a great weekend thank you! Staff was very friendly and had smiles the entire time. It was a very welcoming environment. I will definitely  return when needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r481033507-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481033507</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Home2suites</t>
+  </si>
+  <si>
+    <t>For now the price, courtesy of the employess and cleanliness of your hotel was great. We look forward to staying with you again if the opportunity presents itself.  Hospitality shown to my family during our family reunion was again great.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>For now the price, courtesy of the employess and cleanliness of your hotel was great. We look forward to staying with you again if the opportunity presents itself.  Hospitality shown to my family during our family reunion was again great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r481139944-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>481139944</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful. Very friendly and helpful staff. The ONLY problem is that the breakfast is " microwave food" which made the final decision to not stay again at this brand. For the cost we were expecting a hot meal vs microwave food.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is beautiful. Very friendly and helpful staff. The ONLY problem is that the breakfast is " microwave food" which made the final decision to not stay again at this brand. For the cost we were expecting a hot meal vs microwave food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r479049947-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479049947</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>Would Stay here or Home 2 Again</t>
+  </si>
+  <si>
+    <t>Nothing wrong with my stay everything was good. Staff were happy and smiling no issues. Did not get to use any of the outdoor features like the firepit due to the rain but looked like a nice relaxing place to hang out if we could have.  Also the kitchen area would be great for a family trip and if staying longer for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Nothing wrong with my stay everything was good. Staff were happy and smiling no issues. Did not get to use any of the outdoor features like the firepit due to the rain but looked like a nice relaxing place to hang out if we could have.  Also the kitchen area would be great for a family trip and if staying longer for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r477326754-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477326754</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Great Stay! Highly Recommend</t>
+  </si>
+  <si>
+    <t>This hotel is very clean, and extremely comfortable. The staff is very polite and prompt in service. The breakfast accommodation is different from what I have had from any other hotel but in a POSITIVE way. The room also had blackout shades...this matters when considering lights from headlights and exterior as well. There is plenty of space throughout the hotel and room itself to remain comfortable during a stay. I would recommend any person to consider staying here when considering a hotel stay for any amount of time.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very clean, and extremely comfortable. The staff is very polite and prompt in service. The breakfast accommodation is different from what I have had from any other hotel but in a POSITIVE way. The room also had blackout shades...this matters when considering lights from headlights and exterior as well. There is plenty of space throughout the hotel and room itself to remain comfortable during a stay. I would recommend any person to consider staying here when considering a hotel stay for any amount of time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r477079798-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477079798</t>
+  </si>
+  <si>
+    <t>Houston stay</t>
+  </si>
+  <si>
+    <t>Our room was spacious, clean, comfort at a very reasonable price.  Every staff member we encountered was pleasant and helpful. Was concerned about noise since we were traveling with soccer teams, but rooms were quiet!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Our room was spacious, clean, comfort at a very reasonable price.  Every staff member we encountered was pleasant and helpful. Was concerned about noise since we were traveling with soccer teams, but rooms were quiet!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r475181504-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475181504</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>GREATNESS</t>
+  </si>
+  <si>
+    <t>Customer service was outstanding, very clean and spacious. The atmosphere was very pleasant. Whenever I am in Houston, I will look no further for Hotels. I would definitely book my stay with this hotel. Other hotels could learn a lot from HILTON, they expect nothing less and in my opinion always provide excellent customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Customer service was outstanding, very clean and spacious. The atmosphere was very pleasant. Whenever I am in Houston, I will look no further for Hotels. I would definitely book my stay with this hotel. Other hotels could learn a lot from HILTON, they expect nothing less and in my opinion always provide excellent customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r472819512-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472819512</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Amazing</t>
+  </si>
+  <si>
+    <t>I usually stay at the Hampton Inn, however during this time I was watching my granddaughter play softball and decided to stay over with them.  The hotel is beautiful, the staff were very friendly and extremely helpful.  The rooms are spacious and just gorgeous...and the beds were...well, lets just say I didn't want to get out of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded April 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2017</t>
+  </si>
+  <si>
+    <t>I usually stay at the Hampton Inn, however during this time I was watching my granddaughter play softball and decided to stay over with them.  The hotel is beautiful, the staff were very friendly and extremely helpful.  The rooms are spacious and just gorgeous...and the beds were...well, lets just say I didn't want to get out of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r472250014-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472250014</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>Monkey Business</t>
+  </si>
+  <si>
+    <t>Went along with my husband for a work meeting. The hotel staff are very friendly and polite. The pool was quiet and clean. The towels were blowing around and not sure where those went. The sheets were so soft. I felt like I was at home. The room.smelled new. The only complaint was no bath soap in the dispenser.We got some at CVS. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Went along with my husband for a work meeting. The hotel staff are very friendly and polite. The pool was quiet and clean. The towels were blowing around and not sure where those went. The sheets were so soft. I felt like I was at home. The room.smelled new. The only complaint was no bath soap in the dispenser.We got some at CVS. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r468357618-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468357618</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Wonderful room. Very secure and I felt safe. Nice clean and well equipped gym. Great value. I will be back. Wonderful customer service. The minute I walked into the hotel, I was greeted with a goodie bag of water, cookies and chips. I couldn't believe it!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful room. Very secure and I felt safe. Nice clean and well equipped gym. Great value. I will be back. Wonderful customer service. The minute I walked into the hotel, I was greeted with a goodie bag of water, cookies and chips. I couldn't believe it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r467639710-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467639710</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>Spacious and clean rooms with all amenities- kitchen, refrigerator, coffee; separate living room area.  Smart lay out and good use of space.  Quiet. Great clean spacious room.  Polite staff.  Good breakfast w protein yoghurt, egg Omelettes and usual breakfast items.   Easy online check in and fast checkout.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Spacious and clean rooms with all amenities- kitchen, refrigerator, coffee; separate living room area.  Smart lay out and good use of space.  Quiet. Great clean spacious room.  Polite staff.  Good breakfast w protein yoghurt, egg Omelettes and usual breakfast items.   Easy online check in and fast checkout.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r467128808-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467128808</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Biggest room ever</t>
+  </si>
+  <si>
+    <t>Suite was bigger than 1 bedroom apartment with everything you need.   bed was great, plenty of good food nearby.  Nice big screen TV's.  Great bed for kid to jump on.  Large scale ice box and microwave.  All the dishes and utensils you would need to live here for extended stay.  Be sure to get the large suite, it has separate bed room and bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>Suite was bigger than 1 bedroom apartment with everything you need.   bed was great, plenty of good food nearby.  Nice big screen TV's.  Great bed for kid to jump on.  Large scale ice box and microwave.  All the dishes and utensils you would need to live here for extended stay.  Be sure to get the large suite, it has separate bed room and bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r462942109-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462942109</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Unplanned overnight stay</t>
+  </si>
+  <si>
+    <t>My family of 5 (including my 2 month old) took a day trip to Houston that turned into an overnight trip.  We booked this hotel based on location and price and we got more than our money's worth.  The hotel staff was amazingly accommodating with providing us toothbrushes, deodorant, hair brushes, a baby bed and extra bedding. The room was spacious and very clean with many amenities.  The hot/cold breakfast in the morning was also very delicious and varied.  We stay in Houston at least once a month and we will for sure be staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded March 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2017</t>
+  </si>
+  <si>
+    <t>My family of 5 (including my 2 month old) took a day trip to Houston that turned into an overnight trip.  We booked this hotel based on location and price and we got more than our money's worth.  The hotel staff was amazingly accommodating with providing us toothbrushes, deodorant, hair brushes, a baby bed and extra bedding. The room was spacious and very clean with many amenities.  The hot/cold breakfast in the morning was also very delicious and varied.  We stay in Houston at least once a month and we will for sure be staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r462520455-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462520455</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>First Time at Home2 &amp; Loved It!!?</t>
+  </si>
+  <si>
+    <t>Great price, location and the room was awesome! I normally stay at Hampton Inn and Suites and the bed at Home2 was great. Room size was great with a nice pullout couch, refrigerator, microwave, dishes, sink and dishwasher. It was a nice new hotel. Staff was friendly and ready to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great price, location and the room was awesome! I normally stay at Hampton Inn and Suites and the bed at Home2 was great. Room size was great with a nice pullout couch, refrigerator, microwave, dishes, sink and dishwasher. It was a nice new hotel. Staff was friendly and ready to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r461848173-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461848173</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Closest to Houston Methodist Willowbrook if you have family there</t>
+  </si>
+  <si>
+    <t>Made a stressful trip easier. I I could walk to the hospital any hour of the day and felt so comfortable staying in a hotel with homey accommodations. The bed was so comfortable and so were the sheets. I asked where I could buy them. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Made a stressful trip easier. I I could walk to the hospital any hour of the day and felt so comfortable staying in a hotel with homey accommodations. The bed was so comfortable and so were the sheets. I asked where I could buy them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r460282939-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>460282939</t>
+  </si>
+  <si>
+    <t>02/15/2017</t>
+  </si>
+  <si>
+    <t>This is a great hotel</t>
+  </si>
+  <si>
+    <t>The hotel is about 20 mins from downtown, but even during Superbowl traffic, we were able to make it in good time. The facilities are new and well kept. Parking is complimentary and sufficient parking is available. The room was very clean, satellite TV I believe, with HBO. Nice counter area and kitchen area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is about 20 mins from downtown, but even during Superbowl traffic, we were able to make it in good time. The facilities are new and well kept. Parking is complimentary and sufficient parking is available. The room was very clean, satellite TV I believe, with HBO. Nice counter area and kitchen area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r459539549-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459539549</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Felt like home</t>
+  </si>
+  <si>
+    <t>The hotel was fresh and up to date, the bed was so comfortable it was  difficult to get out of it every morning. The staff were inviting and friendly. The breakfast choices need some tweeking. I was greeted by every member of the staff with a big smile and greeting. It was like staying with close family members. I really enjoyed the lobby greeting area. The outdoor fire pit was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was fresh and up to date, the bed was so comfortable it was  difficult to get out of it every morning. The staff were inviting and friendly. The breakfast choices need some tweeking. I was greeted by every member of the staff with a big smile and greeting. It was like staying with close family members. I really enjoyed the lobby greeting area. The outdoor fire pit was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r459065848-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459065848</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Home2</t>
+  </si>
+  <si>
+    <t>Hotel staff was great, very helpful and courteous. Complimentary breakfast had a wide variety of food. The room and dishes were not as clean as I would have liked, but the overall experience was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel staff was great, very helpful and courteous. Complimentary breakfast had a wide variety of food. The room and dishes were not as clean as I would have liked, but the overall experience was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r458227786-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458227786</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Beautiful place and the beds are so comfortable.  I will definitely be staying there on our next trip to Houston, Tx. The staff was amazing. Convenient locations, shopping mall and restaurants within close distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful place and the beds are so comfortable.  I will definitely be staying there on our next trip to Houston, Tx. The staff was amazing. Convenient locations, shopping mall and restaurants within close distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r457769315-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457769315</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Home2 in Houston Willowbrook area</t>
+  </si>
+  <si>
+    <t>Great hotel for business professionals.  It is quiet and everything you would need on a business trip is readily available.  I have stayed here as a preferred hotel over the last 6 months.  The location is convenient to the Tollway and northwest Houston.  Close-by are a variety of great eateries!  I have recommended this hotel to various business partners.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel for business professionals.  It is quiet and everything you would need on a business trip is readily available.  I have stayed here as a preferred hotel over the last 6 months.  The location is convenient to the Tollway and northwest Houston.  Close-by are a variety of great eateries!  I have recommended this hotel to various business partners.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r456836500-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456836500</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This is a new hotel in the Willowbrook area and they did a fantastic job. The staff is engaging and helpful. The suites are spacious and have a millennial feel. I can definitely see the difference between the Home2 Suites brand and their sister brand Homewood Suites. This is a positive difference. Loved my stay and I will definitely stay again. Digital key is amazing. I fell in love with the technology and when I travel, I try and look for Hilton Hotels that already have digital key. Great feature!!! Great job, Home 2!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>This is a new hotel in the Willowbrook area and they did a fantastic job. The staff is engaging and helpful. The suites are spacious and have a millennial feel. I can definitely see the difference between the Home2 Suites brand and their sister brand Homewood Suites. This is a positive difference. Loved my stay and I will definitely stay again. Digital key is amazing. I fell in love with the technology and when I travel, I try and look for Hilton Hotels that already have digital key. Great feature!!! Great job, Home 2!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r455330029-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455330029</t>
+  </si>
+  <si>
+    <t>01/27/2017</t>
+  </si>
+  <si>
+    <t>The best hotel in the area</t>
+  </si>
+  <si>
+    <t>Hotel staffs were great and always ready to help. they went above and beyond to make sure the guests were comfortable. extremely nice and clean décor, very specious room. I would highly recommend this hotel to anyone. Worth every single penny.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Hotel staffs were great and always ready to help. they went above and beyond to make sure the guests were comfortable. extremely nice and clean décor, very specious room. I would highly recommend this hotel to anyone. Worth every single penny.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r454934661-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454934661</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Good clean new hotel Very attentive staff Good breakfast included Hotel also has great laundry facilities Would highly recommend Close to Willowbrook mall with good restaurants in both walking distance and short drive MoreShow less</t>
+  </si>
+  <si>
+    <t>Good clean new hotel Very attentive staff Good breakfast included Hotel also has great laundry facilities Would highly recommend Close to Willowbrook mall with good restaurants in both walking distance and short drive More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r454850310-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454850310</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Gorgeous Hotel</t>
+  </si>
+  <si>
+    <t>I loved the property. Upon check-in I was greeted by Diaa (Front Desk Agent), he was very friendly and accommodating. The GM, Mary was awesome as well. They both helped my husband find the nearest 24Hr Fitness Center.. Which made his day! The room was nice, really spacious &amp; the beds were super comfortable. Although staff was friendly... I had a couple things I wasn't so fond of within the room. As I got settled in the room. I noticed trash in the waste basket from the previous guest. My toilet was not cleaned at all &amp; I had several nail clippings left on my coffee tables. I must say I try hard not to mention things like this. But as I brought the issue up with one of the night managers, when asked how was everything. His response was "Oh really", Which surprised me (I believe his name was Anthony). But I brushed it off. As I travel I take notice of customer service, because I'm in that field. However this was a great hotel and they've only been open for nearly 4 months, so with time I know they will improve in the future! I checked out early due to all this. Because I really wanted to just relax that weekend.. At check out Tianna, was nice and willing to make things right. Another thing.. This property is located right next to everything you need, very convenient!MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>I loved the property. Upon check-in I was greeted by Diaa (Front Desk Agent), he was very friendly and accommodating. The GM, Mary was awesome as well. They both helped my husband find the nearest 24Hr Fitness Center.. Which made his day! The room was nice, really spacious &amp; the beds were super comfortable. Although staff was friendly... I had a couple things I wasn't so fond of within the room. As I got settled in the room. I noticed trash in the waste basket from the previous guest. My toilet was not cleaned at all &amp; I had several nail clippings left on my coffee tables. I must say I try hard not to mention things like this. But as I brought the issue up with one of the night managers, when asked how was everything. His response was "Oh really", Which surprised me (I believe his name was Anthony). But I brushed it off. As I travel I take notice of customer service, because I'm in that field. However this was a great hotel and they've only been open for nearly 4 months, so with time I know they will improve in the future! I checked out early due to all this. Because I really wanted to just relax that weekend.. At check out Tianna, was nice and willing to make things right. Another thing.. This property is located right next to everything you need, very convenient!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r449783949-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449783949</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel Experience</t>
+  </si>
+  <si>
+    <t>The hotel was very clean both in the lobby and in my suite.  The staff was friendly and very helpful.  Easy on and off of highway.  Overall I was happy with the experience and would stay here again while traveling to this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded January 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was very clean both in the lobby and in my suite.  The staff was friendly and very helpful.  Easy on and off of highway.  Overall I was happy with the experience and would stay here again while traveling to this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r448363444-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448363444</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>We flew in early and were able to check in early.  The manager was very friendly and accommodated us.  Fantastic service and very much appreciated.  Room is spacious and clean.  Good breakfast.  Facility looks modern. Will stay again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>We flew in early and were able to check in early.  The manager was very friendly and accommodated us.  Fantastic service and very much appreciated.  Room is spacious and clean.  Good breakfast.  Facility looks modern. Will stay again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r445805144-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445805144</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>This property was very modern, the rooms we E clean and the staff was great. It was located in a great area of time. I really enjoyed my stay at this property. I would stay here again. Looking forward to my next stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded December 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2016</t>
+  </si>
+  <si>
+    <t>This property was very modern, the rooms we E clean and the staff was great. It was located in a great area of time. I really enjoyed my stay at this property. I would stay here again. Looking forward to my next stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r440735754-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440735754</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>The suite was huge! It was extremely nice and included all amenities. We were very satisfied with our stay and would definitely stay again when in the area. Staff was extremely nice and helpful. Excellent hotel !MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded December 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 6, 2016</t>
+  </si>
+  <si>
+    <t>The suite was huge! It was extremely nice and included all amenities. We were very satisfied with our stay and would definitely stay again when in the area. Staff was extremely nice and helpful. Excellent hotel !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r439856925-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439856925</t>
+  </si>
+  <si>
+    <t>11/24/2016</t>
+  </si>
+  <si>
+    <t>Tried Hard</t>
+  </si>
+  <si>
+    <t>Do not take a room that is on a floor that is over the entrance area - noisy from those using the fire pit and deliveries early in the morning. Was not impressed with the breakfast where they had run out of basics such as cream cheese. Some of the staff were a little of hand and abrupt.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Do not take a room that is on a floor that is over the entrance area - noisy from those using the fire pit and deliveries early in the morning. Was not impressed with the breakfast where they had run out of basics such as cream cheese. Some of the staff were a little of hand and abrupt.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r437931834-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437931834</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Clean,  new,  comfortable,  friendly staff</t>
+  </si>
+  <si>
+    <t>I would return.  The staff was helpful and the room was clean. The breakfast was ok for a continental breakfast, but I can't complain because it was free.  This is a very nice hotel.  They really try to make you feel at home. MoreShow less</t>
+  </si>
+  <si>
+    <t>I would return.  The staff was helpful and the room was clean. The breakfast was ok for a continental breakfast, but I can't complain because it was free.  This is a very nice hotel.  They really try to make you feel at home. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r434262585-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434262585</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay! Every amenity you may need!</t>
+  </si>
+  <si>
+    <t>Spacious, clean suites for a great price! We chose this hotel as we were going to an event at The Sam Houston Race Park and it was only about 10 away (3 miles).   The complimentary breakfast was wonderful. We chose the breakfast sandwiches and fruit. The chicken sausage, egg, and gouda sandwich is awesome! YUM!   The suites have every appliance you need; microwave, toaster, full size fridge, hair dryer, etc. The beds are super comfy too! I did NOT want to get up.   The front desk staff and housekeeping were wonderful! We'll definitely stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2016</t>
+  </si>
+  <si>
+    <t>Spacious, clean suites for a great price! We chose this hotel as we were going to an event at The Sam Houston Race Park and it was only about 10 away (3 miles).   The complimentary breakfast was wonderful. We chose the breakfast sandwiches and fruit. The chicken sausage, egg, and gouda sandwich is awesome! YUM!   The suites have every appliance you need; microwave, toaster, full size fridge, hair dryer, etc. The beds are super comfy too! I did NOT want to get up.   The front desk staff and housekeeping were wonderful! We'll definitely stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r433692024-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433692024</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff</t>
+  </si>
+  <si>
+    <t>We stayed here while my grandfather was in the Methodist Hospital.  The hotel's staff was very friendly and welcoming.  The rooms were clean and spacious.  I hope all of my future hotel stays could be as nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while my grandfather was in the Methodist Hospital.  The hotel's staff was very friendly and welcoming.  The rooms were clean and spacious.  I hope all of my future hotel stays could be as nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r433675006-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433675006</t>
+  </si>
+  <si>
+    <t>Service was excellent, staff very helpful,  room was very clean and accomodating.I would definitely recommend this hotel. Close to shopping and restaurants. Easy on and off the freeway . Close to the hospital.MoreShow less</t>
+  </si>
+  <si>
+    <t>Service was excellent, staff very helpful,  room was very clean and accomodating.I would definitely recommend this hotel. Close to shopping and restaurants. Easy on and off the freeway . Close to the hospital.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r432186997-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432186997</t>
+  </si>
+  <si>
+    <t>10/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent Property</t>
+  </si>
+  <si>
+    <t>What a great place to stay, amenities, the room, the bed, complimentary breakfast, cleanliness.The only thing that did not work was the digital key for entrance on the side of the building, in this case we also had a room card. I will definitely stay here again on my next trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony S, Manager at Home2 Suites by Hilton Houston Willowbrook, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>What a great place to stay, amenities, the room, the bed, complimentary breakfast, cleanliness.The only thing that did not work was the digital key for entrance on the side of the building, in this case we also had a room card. I will definitely stay here again on my next trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r432314825-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432314825</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>The rooms were really neat. Hotel staff was very nice especially Lady that is from Louisiana that works at front desk. Before I decided to stay here, I stopped in for a tour and she was very accommodating. So I decided to stay here. Great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were really neat. Hotel staff was very nice especially Lady that is from Louisiana that works at front desk. Before I decided to stay here, I stopped in for a tour and she was very accommodating. So I decided to stay here. Great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r431638038-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431638038</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I was not familiar with this hotel chain but have always stayed at Hilton hotels.  My daughter highly recommended so decided to give it a try as it was conveniently located.  Really great hotel!!  Very pleasantly surprised.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I was not familiar with this hotel chain but have always stayed at Hilton hotels.  My daughter highly recommended so decided to give it a try as it was conveniently located.  Really great hotel!!  Very pleasantly surprised.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r429922507-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429922507</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>This is an extremely nice hotel. Well kept and maintained. Very friendly and helpful staff. They even helped me with my ren fair costume and were very delighted and complimentary about it. Made me feel welcomed and at home there. Would highly recommend this hotel and others like it!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r427290785-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427290785</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Better than other local options!</t>
+  </si>
+  <si>
+    <t>We travel to Houston several times a year to visit family in the Vintage Park/Champions area.  Typically, we stay at the Element Hotel due to it's location but we have mediocre-to-bad experiences each time, so I am always looking for new options.  We stayed at the Garden Inn located next door to this hotel last time and it was average.  This hotel is brand new, which is great.   All the staff were exceptionally friendly and welcoming.  The rooms are in good order, as expected since they are new.  Beds are on the comfortable end of hotel beds, not spectacular but not bad.  Room size, amenities, TV, etc are all very good.  We would stay here again for sure.  No comparison to the Element - this beats on all points.MoreShow less</t>
+  </si>
+  <si>
+    <t>We travel to Houston several times a year to visit family in the Vintage Park/Champions area.  Typically, we stay at the Element Hotel due to it's location but we have mediocre-to-bad experiences each time, so I am always looking for new options.  We stayed at the Garden Inn located next door to this hotel last time and it was average.  This hotel is brand new, which is great.   All the staff were exceptionally friendly and welcoming.  The rooms are in good order, as expected since they are new.  Beds are on the comfortable end of hotel beds, not spectacular but not bad.  Room size, amenities, TV, etc are all very good.  We would stay here again for sure.  No comparison to the Element - this beats on all points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r426915680-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>426915680</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Brand New Hotel</t>
+  </si>
+  <si>
+    <t>This was a great Hotel!!  Its brand new and looks awesome.  I love the wide open floor space and counter space.  The beds a re soft and Diaam at the front desk was exceptional!! The best thing is the Multigrain waffles!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a great Hotel!!  Its brand new and looks awesome.  I love the wide open floor space and counter space.  The beds a re soft and Diaam at the front desk was exceptional!! The best thing is the Multigrain waffles!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r418286219-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418286219</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, affordable place to stay</t>
+  </si>
+  <si>
+    <t>I travel extensively for business, averaging 80 to 100 nights per year in hotels for well over a decade.  Home2 Suites is fast becoming a core brand for me.  I'm a devoted Hilton Diamond member, but I also hold gold level at Hyatt and Westin.  Hilton is the bulk of my stays and most of those are Hilton Garden Inn, Double Tree and now Home 2.  Clean, comfortable and well positioned, this is a new facility.  Everything is clean, tidy and well thought out.  All rooms have microwave and a comfortable bed.  Most importantly is a clean shower with good water pressure.  Nothing fancy here, just a place that won't make you feel so bad that you're not in your own bed.  Cheerful and friendly staff, excellent amenities and a decent continental breakfast complete the package.  Well done, Home2!  I'll be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I travel extensively for business, averaging 80 to 100 nights per year in hotels for well over a decade.  Home2 Suites is fast becoming a core brand for me.  I'm a devoted Hilton Diamond member, but I also hold gold level at Hyatt and Westin.  Hilton is the bulk of my stays and most of those are Hilton Garden Inn, Double Tree and now Home 2.  Clean, comfortable and well positioned, this is a new facility.  Everything is clean, tidy and well thought out.  All rooms have microwave and a comfortable bed.  Most importantly is a clean shower with good water pressure.  Nothing fancy here, just a place that won't make you feel so bad that you're not in your own bed.  Cheerful and friendly staff, excellent amenities and a decent continental breakfast complete the package.  Well done, Home2!  I'll be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d9884015-r416344877-Home2_Suites_by_Hilton_Houston_Willowbrook-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416344877</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Great rooms and value</t>
+  </si>
+  <si>
+    <t>Roomy suite with lots of extras.  Comfy bed, light-blocking shade when needed, big TV and fridge.  Even a sink with dishes and utensils!  We were the first to stay in this room since the hotel had opened only a couple of days earlier, so the room and bathroom were clean--the layout of the room is excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Roomy suite with lots of extras.  Comfy bed, light-blocking shade when needed, big TV and fridge.  Even a sink with dishes and utensils!  We were the first to stay in this room since the hotel had opened only a couple of days earlier, so the room and bathroom were clean--the layout of the room is excellent.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2372,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2404,5790 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>106</v>
+      </c>
+      <c r="X12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" t="s">
+        <v>148</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>220</v>
+      </c>
+      <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>212</v>
+      </c>
+      <c r="X24" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>223</v>
+      </c>
+      <c r="J25" t="s">
+        <v>217</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>220</v>
+      </c>
+      <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>212</v>
+      </c>
+      <c r="X25" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>232</v>
+      </c>
+      <c r="X26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>246</v>
+      </c>
+      <c r="L28" t="s">
+        <v>247</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>240</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>241</v>
+      </c>
+      <c r="X28" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>240</v>
+      </c>
+      <c r="O29" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>254</v>
+      </c>
+      <c r="X29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>257</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>258</v>
+      </c>
+      <c r="J30" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>260</v>
+      </c>
+      <c r="L30" t="s">
+        <v>261</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>262</v>
+      </c>
+      <c r="X30" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>265</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>266</v>
+      </c>
+      <c r="J31" t="s">
+        <v>267</v>
+      </c>
+      <c r="K31" t="s">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s">
+        <v>269</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>270</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>272</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" t="s">
+        <v>274</v>
+      </c>
+      <c r="K32" t="s">
+        <v>275</v>
+      </c>
+      <c r="L32" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>277</v>
+      </c>
+      <c r="O32" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>274</v>
+      </c>
+      <c r="K33" t="s">
+        <v>283</v>
+      </c>
+      <c r="L33" t="s">
+        <v>284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>277</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>278</v>
+      </c>
+      <c r="X33" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>287</v>
+      </c>
+      <c r="J34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K34" t="s">
+        <v>289</v>
+      </c>
+      <c r="L34" t="s">
+        <v>290</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>277</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>291</v>
+      </c>
+      <c r="X34" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>294</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" t="s">
+        <v>296</v>
+      </c>
+      <c r="K35" t="s">
+        <v>297</v>
+      </c>
+      <c r="L35" t="s">
+        <v>298</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>305</v>
+      </c>
+      <c r="K36" t="s">
+        <v>306</v>
+      </c>
+      <c r="L36" t="s">
+        <v>307</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>299</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>300</v>
+      </c>
+      <c r="X36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>309</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>310</v>
+      </c>
+      <c r="J37" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>299</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>314</v>
+      </c>
+      <c r="X37" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>318</v>
+      </c>
+      <c r="J38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K38" t="s">
+        <v>320</v>
+      </c>
+      <c r="L38" t="s">
+        <v>321</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>327</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>338</v>
+      </c>
+      <c r="O40" t="s">
+        <v>76</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>331</v>
+      </c>
+      <c r="X40" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>330</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>345</v>
+      </c>
+      <c r="X41" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>349</v>
+      </c>
+      <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
+        <v>137</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>338</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>352</v>
+      </c>
+      <c r="X42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>338</v>
+      </c>
+      <c r="O43" t="s">
+        <v>76</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>352</v>
+      </c>
+      <c r="X43" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>362</v>
+      </c>
+      <c r="J44" t="s">
+        <v>363</v>
+      </c>
+      <c r="K44" t="s">
+        <v>364</v>
+      </c>
+      <c r="L44" t="s">
+        <v>365</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>366</v>
+      </c>
+      <c r="O44" t="s">
+        <v>148</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>366</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>375</v>
+      </c>
+      <c r="X45" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>378</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>379</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>366</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>375</v>
+      </c>
+      <c r="X46" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>383</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>384</v>
+      </c>
+      <c r="J47" t="s">
+        <v>385</v>
+      </c>
+      <c r="K47" t="s">
+        <v>386</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>388</v>
+      </c>
+      <c r="X47" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>392</v>
+      </c>
+      <c r="J48" t="s">
+        <v>393</v>
+      </c>
+      <c r="K48" t="s">
+        <v>394</v>
+      </c>
+      <c r="L48" t="s">
+        <v>395</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>366</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>401</v>
+      </c>
+      <c r="L49" t="s">
+        <v>402</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>366</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>396</v>
+      </c>
+      <c r="X49" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>366</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>409</v>
+      </c>
+      <c r="X50" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J51" t="s">
+        <v>414</v>
+      </c>
+      <c r="K51" t="s">
+        <v>415</v>
+      </c>
+      <c r="L51" t="s">
+        <v>416</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>366</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>417</v>
+      </c>
+      <c r="X51" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>420</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>421</v>
+      </c>
+      <c r="J52" t="s">
+        <v>422</v>
+      </c>
+      <c r="K52" t="s">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>417</v>
+      </c>
+      <c r="X52" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>427</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>428</v>
+      </c>
+      <c r="J53" t="s">
+        <v>429</v>
+      </c>
+      <c r="K53" t="s">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s">
+        <v>431</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>425</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>432</v>
+      </c>
+      <c r="X53" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>435</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>436</v>
+      </c>
+      <c r="J54" t="s">
+        <v>437</v>
+      </c>
+      <c r="K54" t="s">
+        <v>438</v>
+      </c>
+      <c r="L54" t="s">
+        <v>439</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>425</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>432</v>
+      </c>
+      <c r="X54" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>441</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>442</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>444</v>
+      </c>
+      <c r="L55" t="s">
+        <v>445</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>425</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>432</v>
+      </c>
+      <c r="X55" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>453</v>
+      </c>
+      <c r="X56" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>456</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
+        <v>458</v>
+      </c>
+      <c r="K57" t="s">
+        <v>459</v>
+      </c>
+      <c r="L57" t="s">
+        <v>460</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>453</v>
+      </c>
+      <c r="X57" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" t="s">
+        <v>465</v>
+      </c>
+      <c r="L58" t="s">
+        <v>466</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>452</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>467</v>
+      </c>
+      <c r="X58" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>471</v>
+      </c>
+      <c r="J59" t="s">
+        <v>472</v>
+      </c>
+      <c r="K59" t="s">
+        <v>473</v>
+      </c>
+      <c r="L59" t="s">
+        <v>474</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>452</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>475</v>
+      </c>
+      <c r="X59" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>478</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>479</v>
+      </c>
+      <c r="J60" t="s">
+        <v>480</v>
+      </c>
+      <c r="K60" t="s">
+        <v>481</v>
+      </c>
+      <c r="L60" t="s">
+        <v>482</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>452</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>483</v>
+      </c>
+      <c r="X60" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>452</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>483</v>
+      </c>
+      <c r="X61" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>497</v>
+      </c>
+      <c r="X62" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>501</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>503</v>
+      </c>
+      <c r="L63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>452</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>497</v>
+      </c>
+      <c r="X63" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>506</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>507</v>
+      </c>
+      <c r="J64" t="s">
+        <v>508</v>
+      </c>
+      <c r="K64" t="s">
+        <v>509</v>
+      </c>
+      <c r="L64" t="s">
+        <v>510</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>511</v>
+      </c>
+      <c r="O64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>512</v>
+      </c>
+      <c r="X64" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>516</v>
+      </c>
+      <c r="J65" t="s">
+        <v>517</v>
+      </c>
+      <c r="K65" t="s">
+        <v>518</v>
+      </c>
+      <c r="L65" t="s">
+        <v>519</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>511</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>520</v>
+      </c>
+      <c r="X65" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>523</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J66" t="s">
+        <v>525</v>
+      </c>
+      <c r="K66" t="s">
+        <v>526</v>
+      </c>
+      <c r="L66" t="s">
+        <v>527</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>511</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>520</v>
+      </c>
+      <c r="X66" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>529</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>530</v>
+      </c>
+      <c r="J67" t="s">
+        <v>531</v>
+      </c>
+      <c r="K67" t="s">
+        <v>532</v>
+      </c>
+      <c r="L67" t="s">
+        <v>533</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>534</v>
+      </c>
+      <c r="X67" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>537</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>538</v>
+      </c>
+      <c r="J68" t="s">
+        <v>539</v>
+      </c>
+      <c r="K68" t="s">
+        <v>540</v>
+      </c>
+      <c r="L68" t="s">
+        <v>541</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>511</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>542</v>
+      </c>
+      <c r="X68" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+      <c r="K69" t="s">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s">
+        <v>548</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>549</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>550</v>
+      </c>
+      <c r="X69" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>549</v>
+      </c>
+      <c r="O70" t="s">
+        <v>148</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>558</v>
+      </c>
+      <c r="X70" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>561</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>562</v>
+      </c>
+      <c r="J71" t="s">
+        <v>563</v>
+      </c>
+      <c r="K71" t="s">
+        <v>564</v>
+      </c>
+      <c r="L71" t="s">
+        <v>565</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>566</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>567</v>
+      </c>
+      <c r="X71" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+      <c r="J72" t="s">
+        <v>572</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>566</v>
+      </c>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>575</v>
+      </c>
+      <c r="X72" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>578</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>579</v>
+      </c>
+      <c r="J73" t="s">
+        <v>580</v>
+      </c>
+      <c r="K73" t="s">
+        <v>581</v>
+      </c>
+      <c r="L73" t="s">
+        <v>582</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>566</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>567</v>
+      </c>
+      <c r="X73" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>584</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>585</v>
+      </c>
+      <c r="J74" t="s">
+        <v>586</v>
+      </c>
+      <c r="K74" t="s">
+        <v>587</v>
+      </c>
+      <c r="L74" t="s">
+        <v>588</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>589</v>
+      </c>
+      <c r="O74" t="s">
+        <v>148</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>590</v>
+      </c>
+      <c r="X74" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>594</v>
+      </c>
+      <c r="J75" t="s">
+        <v>595</v>
+      </c>
+      <c r="K75" t="s">
+        <v>596</v>
+      </c>
+      <c r="L75" t="s">
+        <v>597</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>589</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>590</v>
+      </c>
+      <c r="X75" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>599</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>600</v>
+      </c>
+      <c r="J76" t="s">
+        <v>595</v>
+      </c>
+      <c r="K76" t="s">
+        <v>430</v>
+      </c>
+      <c r="L76" t="s">
+        <v>601</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>589</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>590</v>
+      </c>
+      <c r="X76" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>603</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>604</v>
+      </c>
+      <c r="J77" t="s">
+        <v>605</v>
+      </c>
+      <c r="K77" t="s">
+        <v>606</v>
+      </c>
+      <c r="L77" t="s">
+        <v>607</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>589</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>608</v>
+      </c>
+      <c r="X77" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>611</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>612</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>613</v>
+      </c>
+      <c r="L78" t="s">
+        <v>614</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>589</v>
+      </c>
+      <c r="O78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>608</v>
+      </c>
+      <c r="X78" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>616</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>617</v>
+      </c>
+      <c r="J79" t="s">
+        <v>618</v>
+      </c>
+      <c r="K79" t="s">
+        <v>619</v>
+      </c>
+      <c r="L79" t="s">
+        <v>620</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>589</v>
+      </c>
+      <c r="O79" t="s">
+        <v>68</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>608</v>
+      </c>
+      <c r="X79" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>622</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>623</v>
+      </c>
+      <c r="J80" t="s">
+        <v>624</v>
+      </c>
+      <c r="K80" t="s">
+        <v>625</v>
+      </c>
+      <c r="L80" t="s">
+        <v>626</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>589</v>
+      </c>
+      <c r="O80" t="s">
+        <v>68</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>628</v>
+      </c>
+      <c r="J81" t="s">
+        <v>629</v>
+      </c>
+      <c r="K81" t="s">
+        <v>630</v>
+      </c>
+      <c r="L81" t="s">
+        <v>631</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>589</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>608</v>
+      </c>
+      <c r="X81" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="J82" t="s">
+        <v>635</v>
+      </c>
+      <c r="K82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>608</v>
+      </c>
+      <c r="X82" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>640</v>
+      </c>
+      <c r="J83" t="s">
+        <v>641</v>
+      </c>
+      <c r="K83" t="s">
+        <v>642</v>
+      </c>
+      <c r="L83" t="s">
+        <v>643</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>644</v>
+      </c>
+      <c r="O83" t="s">
+        <v>76</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>608</v>
+      </c>
+      <c r="X83" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64954</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>646</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>647</v>
+      </c>
+      <c r="J84" t="s">
+        <v>648</v>
+      </c>
+      <c r="K84" t="s">
+        <v>649</v>
+      </c>
+      <c r="L84" t="s">
+        <v>650</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>651</v>
+      </c>
+      <c r="O84" t="s">
+        <v>124</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>608</v>
+      </c>
+      <c r="X84" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
